--- a/matches (1).xlsx
+++ b/matches (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AEM567\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A579AF-7A73-405A-865A-A5849B8C087E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DEFD05-C0FE-4A95-ADB8-155EB828101A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,9 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Players</t>
+  </si>
+  <si>
     <t>Game</t>
   </si>
   <si>
@@ -739,9 +742,6 @@
   </si>
   <si>
     <t>I79+M76</t>
-  </si>
-  <si>
-    <t>Lights</t>
   </si>
 </sst>
 </file>
@@ -1049,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1069,19 +1069,19 @@
         <v>43422</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1089,19 +1089,19 @@
         <v>43422</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,19 +1109,19 @@
         <v>43422</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1129,16 +1129,16 @@
         <v>43422</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1146,16 +1146,16 @@
         <v>43422</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,16 +1163,16 @@
         <v>43422</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1180,19 +1180,19 @@
         <v>43422</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1200,19 +1200,19 @@
         <v>43426</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1220,19 +1220,19 @@
         <v>43426</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1240,19 +1240,19 @@
         <v>43426</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1260,19 +1260,19 @@
         <v>43428</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1280,19 +1280,19 @@
         <v>43429</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1300,19 +1300,19 @@
         <v>43429</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,19 +1320,19 @@
         <v>43429</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1340,19 +1340,19 @@
         <v>43429</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,19 +1360,19 @@
         <v>43434</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1380,19 +1380,19 @@
         <v>43434</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1400,19 +1400,19 @@
         <v>43438</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,19 +1420,19 @@
         <v>43438</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1440,19 +1440,19 @@
         <v>43438</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1460,19 +1460,19 @@
         <v>43439</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,19 +1480,19 @@
         <v>43439</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1500,19 +1500,19 @@
         <v>43439</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1520,19 +1520,19 @@
         <v>43441</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1540,19 +1540,19 @@
         <v>43443</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,19 +1560,19 @@
         <v>43443</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1580,19 +1580,19 @@
         <v>43443</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,19 +1600,19 @@
         <v>43454</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1620,19 +1620,19 @@
         <v>43456</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1640,19 +1640,19 @@
         <v>43456</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1660,19 +1660,19 @@
         <v>43456</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1680,19 +1680,19 @@
         <v>43458</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1700,19 +1700,19 @@
         <v>43458</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,16 +1720,16 @@
         <v>43442</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F35" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1737,16 +1737,16 @@
         <v>43458</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1754,16 +1754,16 @@
         <v>43458</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1771,19 +1771,19 @@
         <v>43458</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,19 +1791,19 @@
         <v>43458</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1811,19 +1811,19 @@
         <v>43459</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,19 +1831,19 @@
         <v>43459</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1851,19 +1851,19 @@
         <v>43459</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1871,19 +1871,19 @@
         <v>43459</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1891,19 +1891,19 @@
         <v>43460</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1911,19 +1911,19 @@
         <v>43460</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1931,19 +1931,19 @@
         <v>43460</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1951,19 +1951,19 @@
         <v>43460</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1971,19 +1971,19 @@
         <v>43464</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,19 +1991,19 @@
         <v>43464</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2011,19 +2011,19 @@
         <v>43464</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2031,19 +2031,19 @@
         <v>43464</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2051,19 +2051,19 @@
         <v>43464</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2071,19 +2071,19 @@
         <v>43465</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2091,19 +2091,19 @@
         <v>43465</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2111,16 +2111,16 @@
         <v>43465</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2128,16 +2128,16 @@
         <v>43465</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2145,16 +2145,16 @@
         <v>43465</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2162,16 +2162,16 @@
         <v>43465</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2179,19 +2179,19 @@
         <v>43465</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2199,19 +2199,19 @@
         <v>43465</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2219,19 +2219,19 @@
         <v>43465</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2239,19 +2239,19 @@
         <v>43465</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2259,19 +2259,19 @@
         <v>43467</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,19 +2279,19 @@
         <v>43467</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2299,19 +2299,19 @@
         <v>43467</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2319,19 +2319,19 @@
         <v>43470</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2339,19 +2339,19 @@
         <v>43470</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2359,19 +2359,19 @@
         <v>43470</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2379,19 +2379,19 @@
         <v>43476</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2399,19 +2399,19 @@
         <v>43476</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2419,19 +2419,19 @@
         <v>43477</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D71" s="4">
         <v>2</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,19 +2439,19 @@
         <v>43478</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2459,19 +2459,19 @@
         <v>43478</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2479,19 +2479,19 @@
         <v>43478</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2499,19 +2499,19 @@
         <v>43483</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2519,19 +2519,19 @@
         <v>43483</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2539,19 +2539,19 @@
         <v>43484</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2559,19 +2559,19 @@
         <v>43484</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2579,19 +2579,19 @@
         <v>43484</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2599,19 +2599,19 @@
         <v>43484</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2619,19 +2619,19 @@
         <v>43491</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2639,19 +2639,19 @@
         <v>43491</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2659,19 +2659,19 @@
         <v>43491</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2679,19 +2679,19 @@
         <v>43493</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2699,19 +2699,19 @@
         <v>43493</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2719,19 +2719,19 @@
         <v>43496</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2739,19 +2739,19 @@
         <v>43496</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2759,19 +2759,19 @@
         <v>43498</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2779,19 +2779,19 @@
         <v>43498</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2799,19 +2799,19 @@
         <v>43498</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2819,16 +2819,16 @@
         <v>43499</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2836,19 +2836,19 @@
         <v>43500</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2856,19 +2856,19 @@
         <v>43500</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2876,19 +2876,19 @@
         <v>43500</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2896,19 +2896,19 @@
         <v>43503</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2916,19 +2916,19 @@
         <v>43504</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2936,19 +2936,19 @@
         <v>43504</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2956,19 +2956,19 @@
         <v>43505</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2976,19 +2976,19 @@
         <v>43505</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2996,19 +2996,19 @@
         <v>43510</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3016,19 +3016,19 @@
         <v>43510</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3036,19 +3036,19 @@
         <v>43510</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3056,19 +3056,19 @@
         <v>43511</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3076,19 +3076,19 @@
         <v>43511</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3096,19 +3096,19 @@
         <v>43513</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3116,19 +3116,19 @@
         <v>43513</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3136,19 +3136,19 @@
         <v>43513</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3156,19 +3156,19 @@
         <v>43520</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3176,19 +3176,19 @@
         <v>43520</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3196,19 +3196,19 @@
         <v>43520</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3216,19 +3216,19 @@
         <v>43520</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3236,19 +3236,19 @@
         <v>43520</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3256,19 +3256,19 @@
         <v>43539</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3276,19 +3276,19 @@
         <v>43539</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3296,19 +3296,19 @@
         <v>43525</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3316,19 +3316,19 @@
         <v>43525</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3336,19 +3336,19 @@
         <v>43525</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3356,19 +3356,19 @@
         <v>43555</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3376,16 +3376,16 @@
         <v>43567</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3393,19 +3393,19 @@
         <v>43567</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3413,19 +3413,19 @@
         <v>43568</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3433,19 +3433,19 @@
         <v>43568</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3453,19 +3453,19 @@
         <v>43569</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3473,19 +3473,19 @@
         <v>43569</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3493,19 +3493,19 @@
         <v>43571</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3513,19 +3513,19 @@
         <v>43577</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3533,19 +3533,19 @@
         <v>43583</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3553,19 +3553,19 @@
         <v>43590</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3573,19 +3573,19 @@
         <v>43590</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3593,19 +3593,19 @@
         <v>43606</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3613,19 +3613,19 @@
         <v>43606</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3633,19 +3633,19 @@
         <v>43607</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3653,19 +3653,19 @@
         <v>43607</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3673,19 +3673,19 @@
         <v>43607</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3693,19 +3693,19 @@
         <v>43608</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3713,19 +3713,19 @@
         <v>43608</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3733,19 +3733,19 @@
         <v>43609</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3753,19 +3753,19 @@
         <v>43611</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3773,19 +3773,19 @@
         <v>43611</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3793,19 +3793,19 @@
         <v>43611</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3813,19 +3813,19 @@
         <v>43611</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3833,19 +3833,19 @@
         <v>43611</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3853,19 +3853,19 @@
         <v>43611</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3873,19 +3873,19 @@
         <v>43613</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3893,19 +3893,19 @@
         <v>43614</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3913,19 +3913,19 @@
         <v>43614</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3933,19 +3933,19 @@
         <v>43614</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3953,19 +3953,19 @@
         <v>43614</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3973,19 +3973,19 @@
         <v>43616</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3993,19 +3993,19 @@
         <v>43616</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4013,19 +4013,19 @@
         <v>43616</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4033,19 +4033,19 @@
         <v>43621</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4053,19 +4053,19 @@
         <v>43623</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4073,19 +4073,19 @@
         <v>43623</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4093,16 +4093,16 @@
         <v>43623</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4110,19 +4110,19 @@
         <v>43623</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4130,16 +4130,16 @@
         <v>43624</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4147,19 +4147,19 @@
         <v>43624</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4167,19 +4167,19 @@
         <v>43624</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4187,16 +4187,16 @@
         <v>43625</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4204,19 +4204,19 @@
         <v>43625</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4224,16 +4224,16 @@
         <v>43625</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4241,16 +4241,16 @@
         <v>43625</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4258,19 +4258,19 @@
         <v>43625</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4278,19 +4278,19 @@
         <v>43625</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4298,19 +4298,19 @@
         <v>43626</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4318,19 +4318,19 @@
         <v>43626</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4338,19 +4338,19 @@
         <v>43629</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4358,19 +4358,19 @@
         <v>43631</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4378,19 +4378,19 @@
         <v>43635</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4398,19 +4398,19 @@
         <v>43636</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4418,19 +4418,19 @@
         <v>43636</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4438,19 +4438,19 @@
         <v>43636</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4458,19 +4458,19 @@
         <v>43638</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4478,19 +4478,19 @@
         <v>43637</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4498,16 +4498,16 @@
         <v>43637</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4515,19 +4515,19 @@
         <v>43637</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4535,16 +4535,16 @@
         <v>43637</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4552,19 +4552,19 @@
         <v>43637</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4572,19 +4572,19 @@
         <v>43639</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4592,19 +4592,19 @@
         <v>43639</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4612,16 +4612,16 @@
         <v>43653</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4629,19 +4629,19 @@
         <v>43653</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4649,19 +4649,19 @@
         <v>43653</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4669,16 +4669,16 @@
         <v>43654</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4686,19 +4686,19 @@
         <v>43654</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4706,19 +4706,19 @@
         <v>43654</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4726,19 +4726,19 @@
         <v>43656</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4746,19 +4746,19 @@
         <v>43656</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4766,19 +4766,19 @@
         <v>43656</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4786,19 +4786,19 @@
         <v>43657</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,16 +4806,16 @@
         <v>43657</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4823,19 +4823,19 @@
         <v>43658</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4843,19 +4843,19 @@
         <v>43659</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4863,19 +4863,19 @@
         <v>43659</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D195" s="6">
         <v>7</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4883,19 +4883,19 @@
         <v>43659</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D196" s="6">
         <v>9</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4903,19 +4903,19 @@
         <v>43661</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4923,19 +4923,19 @@
         <v>43661</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D198" s="6">
         <v>9</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4943,19 +4943,19 @@
         <v>43673</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4963,19 +4963,19 @@
         <v>43673</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4983,19 +4983,19 @@
         <v>43674</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5003,19 +5003,19 @@
         <v>43674</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5023,19 +5023,19 @@
         <v>43687</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5043,19 +5043,19 @@
         <v>43687</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5063,19 +5063,19 @@
         <v>43691</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5083,19 +5083,19 @@
         <v>43695</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5103,19 +5103,19 @@
         <v>43702</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5123,19 +5123,19 @@
         <v>43702</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5143,19 +5143,19 @@
         <v>43702</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5163,19 +5163,19 @@
         <v>43702</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5183,19 +5183,19 @@
         <v>43686</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5203,19 +5203,19 @@
         <v>43723</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5223,19 +5223,19 @@
         <v>43728</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5243,19 +5243,19 @@
         <v>43728</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5263,19 +5263,19 @@
         <v>43728</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5283,19 +5283,19 @@
         <v>43730</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5303,19 +5303,19 @@
         <v>43730</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5323,19 +5323,19 @@
         <v>43730</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5343,19 +5343,19 @@
         <v>43744</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5363,19 +5363,19 @@
         <v>43750</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5383,19 +5383,19 @@
         <v>43750</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
